--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1496286.12013304</v>
+        <v>-1499006.017908256</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>333.7454365915767</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>337.8317124629466</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.01685305800856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>263.8534790963691</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>169.3274933806828</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>220.4139029244242</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -947,22 +947,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>30.84103194714606</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>82.50881451790384</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>37.0442884104317</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>259.1951973324896</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>321.8577291959657</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>234.1000374728686</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>113.4446823660565</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.5271979141341</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>26.07046444232026</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>149.2607556244443</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>1.839588425939337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.5854408598109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3791,10 +3791,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>887.9329408788699</v>
+        <v>410.0655539295702</v>
       </c>
       <c r="C2" t="n">
-        <v>887.9329408788699</v>
+        <v>410.0655539295702</v>
       </c>
       <c r="D2" t="n">
-        <v>529.6672422721194</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E2" t="n">
-        <v>529.6672422721194</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F2" t="n">
-        <v>188.4230882691431</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073758</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>455.1003844723706</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>816.5080179329395</v>
       </c>
       <c r="M2" t="n">
-        <v>1161.109707842993</v>
+        <v>1457.531227552833</v>
       </c>
       <c r="N2" t="n">
-        <v>1802.132917462887</v>
+        <v>1763.006333788418</v>
       </c>
       <c r="O2" t="n">
-        <v>2077.249136779522</v>
+        <v>2038.122553105051</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2194.618789397901</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>1863.55590205433</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115761</v>
+        <v>1510.787246784216</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.072272854682</v>
+        <v>1137.321488523136</v>
       </c>
       <c r="Y2" t="n">
-        <v>887.9329408788699</v>
+        <v>747.1821565473244</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093827</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995042</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>460.3590590626818</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025183</v>
+        <v>1037.081874165937</v>
       </c>
       <c r="M3" t="n">
-        <v>1435.803266922412</v>
+        <v>1301.021405661424</v>
       </c>
       <c r="N3" t="n">
-        <v>1721.137137355745</v>
+        <v>1723.657007090155</v>
       </c>
       <c r="O3" t="n">
-        <v>1959.942089107204</v>
+        <v>2352.385654925576</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>991.0700018628663</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383043</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.683643607215</v>
+        <v>477.5222156304064</v>
       </c>
       <c r="V4" t="n">
-        <v>789.9991554013277</v>
+        <v>222.8377274245195</v>
       </c>
       <c r="W4" t="n">
-        <v>500.5819853643671</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="X4" t="n">
-        <v>272.5924344663498</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.170759177776</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="C5" t="n">
-        <v>1452.170759177776</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="D5" t="n">
         <v>1229.530453193509</v>
@@ -4553,16 +4553,16 @@
         <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
-        <v>432.7562958056569</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
         <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
         <v>189.986887110478</v>
@@ -4571,10 +4571,10 @@
         <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477384</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4583,34 +4583,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502977</v>
+        <v>2003.590997961804</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.236357502977</v>
+        <v>1972.438440439435</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.236357502977</v>
+        <v>1619.66978516932</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.770599241897</v>
+        <v>1619.66978516932</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.770599241897</v>
+        <v>1229.530453193509</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L6" t="n">
-        <v>772.9131705890438</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M6" t="n">
-        <v>1139.219060081369</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1529.628621407111</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O6" t="n">
-        <v>2170.651831027005</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
         <v>2536.977948259489</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>622.3287516913797</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="C7" t="n">
-        <v>622.3287516913797</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="D7" t="n">
-        <v>472.2121122790439</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
         <v>157.3459760430229</v>
@@ -4720,7 +4720,7 @@
         <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
         <v>77.98108068080549</v>
@@ -4750,25 +4750,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1507.443834769054</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="V7" t="n">
-        <v>1252.759346563167</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="W7" t="n">
-        <v>1252.759346563167</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="X7" t="n">
-        <v>1024.76979566515</v>
+        <v>608.3707395712349</v>
       </c>
       <c r="Y7" t="n">
-        <v>803.9772165216194</v>
+        <v>387.5781604277048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9562932262875</v>
+        <v>1194.452566093516</v>
       </c>
       <c r="C8" t="n">
-        <v>755.9562932262875</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="D8" t="n">
-        <v>397.690594619537</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8772639806586</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4823,31 +4823,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2258.929878797414</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266221</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.556133290409</v>
+        <v>1581.052406157638</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.302981905902</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1554.712543231644</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.3135271259589</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="C10" t="n">
-        <v>515.3135271259589</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="D10" t="n">
-        <v>515.3135271259589</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E10" t="n">
-        <v>515.3135271259589</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
         <v>77.98108068080549</v>
@@ -4990,22 +4990,22 @@
         <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1450.534004159847</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1161.416227170245</v>
+        <v>938.4816527122264</v>
       </c>
       <c r="V10" t="n">
-        <v>924.951542854216</v>
+        <v>683.7971645063395</v>
       </c>
       <c r="W10" t="n">
-        <v>924.951542854216</v>
+        <v>394.3799944693789</v>
       </c>
       <c r="X10" t="n">
-        <v>696.9619919561986</v>
+        <v>166.3904435713616</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.9619919561986</v>
+        <v>51.7998553228197</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.396302956687</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.603723813157</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5358,25 +5358,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2420.62928111327</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.774446768175</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,10 +5835,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.192580311172</v>
@@ -6066,19 +6066,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1368.154262550759</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1920.063992790046</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,10 +7093,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7251,16 +7251,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7564,28 +7564,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>125.0352042852301</v>
       </c>
       <c r="M2" t="n">
-        <v>343.1531561769491</v>
+        <v>348.4370131942342</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>138.6886171670698</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>186.3303545049296</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>175.4085598453538</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326897</v>
+        <v>10.05242792961565</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>200.7458546176088</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>48.98840507190391</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>69.04433327876481</v>
+        <v>267.9985944861469</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.39178164144988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>117.1955049559082</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.30478226780323</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.30478226780143</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.57122455749297</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.9992124922839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.629008122312371e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>116044.8438455268</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="F2" t="n">
+        <v>141250.6549457511</v>
+      </c>
+      <c r="G2" t="n">
         <v>141250.6549457512</v>
-      </c>
-      <c r="G2" t="n">
-        <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
+        <v>141250.6549457512</v>
+      </c>
+      <c r="J2" t="n">
         <v>141250.6549457511</v>
-      </c>
-      <c r="J2" t="n">
-        <v>141250.654945751</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898936</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69645.52123312789</v>
+        <v>69645.52123312802</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,37 +26424,37 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695046</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695042</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695079</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478853</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478855</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-982628.6881599907</v>
+        <v>-983023.5091011426</v>
       </c>
       <c r="C6" t="n">
-        <v>-251629.8941504003</v>
+        <v>-251629.8941504016</v>
       </c>
       <c r="D6" t="n">
-        <v>-78865.53436050793</v>
+        <v>-78865.53436050794</v>
       </c>
       <c r="E6" t="n">
-        <v>-467048.2231556018</v>
+        <v>-467082.9610810375</v>
       </c>
       <c r="F6" t="n">
-        <v>33840.64459014904</v>
+        <v>33805.90666471326</v>
       </c>
       <c r="G6" t="n">
-        <v>33840.64459014889</v>
+        <v>33805.90666471334</v>
       </c>
       <c r="H6" t="n">
-        <v>33840.64459014895</v>
+        <v>33805.90666471326</v>
       </c>
       <c r="I6" t="n">
-        <v>33840.64459014895</v>
+        <v>33805.90666471331</v>
       </c>
       <c r="J6" t="n">
-        <v>-135573.3722358992</v>
+        <v>-135608.1101613347</v>
       </c>
       <c r="K6" t="n">
-        <v>6812.136083913996</v>
+        <v>6812.136083913982</v>
       </c>
       <c r="L6" t="n">
         <v>26239.85407754571</v>
       </c>
       <c r="M6" t="n">
-        <v>-104644.6028266895</v>
+        <v>-104644.6028266896</v>
       </c>
       <c r="N6" t="n">
-        <v>26239.85407754571</v>
+        <v>26239.85407754569</v>
       </c>
       <c r="O6" t="n">
-        <v>26239.85407754584</v>
+        <v>26239.85407754574</v>
       </c>
       <c r="P6" t="n">
-        <v>6812.136083913967</v>
+        <v>6812.136083913909</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522352</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>138.8774512555645</v>
       </c>
       <c r="G2" t="n">
-        <v>371.2708856370356</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>134.2691386962588</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>296.9112265229888</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>97.32316566403345</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>249.1823108092739</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>122.7351727397722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>64.38020946008788</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>18.03760585095944</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>105.1399709860383</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,16 +31853,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,28 +32078,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,13 +32555,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>500.7380235181012</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,13 +33269,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,10 +33497,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>290.1088399635148</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>459.3154675919703</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,19 +33971,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>638.4800548179295</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>572.868299221487</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520769</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161563</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>365.0582156167363</v>
       </c>
       <c r="M2" t="n">
-        <v>642.2143345179622</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.5607133692773</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269026</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>202.3276033223259</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185455</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932396</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643751</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840959</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>266.6055873691787</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>426.9046479078095</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580004</v>
       </c>
       <c r="P3" t="n">
-        <v>360.4000120339294</v>
+        <v>174.0696575289992</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168693</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495852</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
@@ -35015,10 +35015,10 @@
         <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>475.7236599628434</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35027,13 +35027,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352464</v>
+        <v>348.3642266321723</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>25.33729477225504</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931441</v>
@@ -35258,19 +35258,19 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>570.7518035997557</v>
+        <v>543.7698733561873</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,10 +35893,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>366.763616103771</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,13 +36917,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,10 +37145,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1270658774933</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7192231475259</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37619,19 +37619,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>496.3460208959112</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>430.2720547770426</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
